--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdnf-Ret.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdnf-Ret.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,10 +91,10 @@
     <t>Ret</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2830243333333333</v>
+        <v>0.4995885</v>
       </c>
       <c r="H2">
-        <v>0.849073</v>
+        <v>0.999177</v>
       </c>
       <c r="I2">
-        <v>0.1026046469866766</v>
+        <v>0.08073427759634712</v>
       </c>
       <c r="J2">
-        <v>0.1463964903726289</v>
+        <v>0.07892927665008602</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.87073</v>
+        <v>0.8639135</v>
       </c>
       <c r="N2">
-        <v>7.74146</v>
+        <v>1.727827</v>
       </c>
       <c r="O2">
-        <v>0.4357780537476825</v>
+        <v>0.1895490737713731</v>
       </c>
       <c r="P2">
-        <v>0.3549718160138305</v>
+        <v>0.1380033232738433</v>
       </c>
       <c r="Q2">
-        <v>1.095510777763333</v>
+        <v>0.43160124959475</v>
       </c>
       <c r="R2">
-        <v>6.57306466658</v>
+        <v>1.726404998379</v>
       </c>
       <c r="S2">
-        <v>0.04471285336932196</v>
+        <v>0.01530310753998851</v>
       </c>
       <c r="T2">
-        <v>0.05196662804562335</v>
+        <v>0.01089250248131243</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2830243333333333</v>
+        <v>0.4995885</v>
       </c>
       <c r="H3">
-        <v>0.849073</v>
+        <v>0.999177</v>
       </c>
       <c r="I3">
-        <v>0.1026046469866766</v>
+        <v>0.08073427759634712</v>
       </c>
       <c r="J3">
-        <v>0.1463964903726289</v>
+        <v>0.07892927665008602</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +626,22 @@
         <v>10.153155</v>
       </c>
       <c r="O3">
-        <v>0.38102391756409</v>
+        <v>0.7425593442349591</v>
       </c>
       <c r="P3">
-        <v>0.4655560926000913</v>
+        <v>0.8109429541930055</v>
       </c>
       <c r="Q3">
-        <v>0.9578633083683331</v>
+        <v>1.6907998255725</v>
       </c>
       <c r="R3">
-        <v>8.620769775314997</v>
+        <v>10.144798953435</v>
       </c>
       <c r="S3">
-        <v>0.03909482455514404</v>
+        <v>0.05994999222922667</v>
       </c>
       <c r="T3">
-        <v>0.06815577802824802</v>
+        <v>0.06400714077893777</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2830243333333333</v>
+        <v>0.4995885</v>
       </c>
       <c r="H4">
-        <v>0.849073</v>
+        <v>0.999177</v>
       </c>
       <c r="I4">
-        <v>0.1026046469866766</v>
+        <v>0.08073427759634712</v>
       </c>
       <c r="J4">
-        <v>0.1463964903726289</v>
+        <v>0.07892927665008602</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.967637</v>
+        <v>0.2890925</v>
       </c>
       <c r="N4">
-        <v>1.935274</v>
+        <v>0.5781849999999999</v>
       </c>
       <c r="O4">
-        <v>0.1089393909144389</v>
+        <v>0.06342905349812297</v>
       </c>
       <c r="P4">
-        <v>0.08873878134929972</v>
+        <v>0.04618023185601746</v>
       </c>
       <c r="Q4">
-        <v>0.2738648168336666</v>
+        <v>0.14442728843625</v>
       </c>
       <c r="R4">
-        <v>1.643188901002</v>
+        <v>0.577709153745</v>
       </c>
       <c r="S4">
-        <v>0.01117768774771957</v>
+        <v>0.005120898812791012</v>
       </c>
       <c r="T4">
-        <v>0.01299104614948158</v>
+        <v>0.003644972295928718</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -720,111 +723,111 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2830243333333333</v>
+        <v>0.4995885</v>
       </c>
       <c r="H5">
-        <v>0.849073</v>
+        <v>0.999177</v>
       </c>
       <c r="I5">
-        <v>0.1026046469866766</v>
+        <v>0.08073427759634712</v>
       </c>
       <c r="J5">
-        <v>0.1463964903726289</v>
+        <v>0.07892927665008602</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.6595906666666668</v>
+        <v>0.01599833333333333</v>
       </c>
       <c r="N5">
-        <v>1.978772</v>
+        <v>0.047995</v>
       </c>
       <c r="O5">
-        <v>0.07425863777378852</v>
+        <v>0.003510153811948785</v>
       </c>
       <c r="P5">
-        <v>0.09073331003677852</v>
+        <v>0.003833410116017465</v>
       </c>
       <c r="Q5">
-        <v>0.1866802087062222</v>
+        <v>0.007992583352499999</v>
       </c>
       <c r="R5">
-        <v>1.680121878356</v>
+        <v>0.047955500115</v>
       </c>
       <c r="S5">
-        <v>0.007619281314491061</v>
+        <v>0.0002833897322597492</v>
       </c>
       <c r="T5">
-        <v>0.013283038149276</v>
+        <v>0.0003025682875603809</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>2.4753725</v>
+        <v>0.4995885</v>
       </c>
       <c r="H6">
-        <v>4.950745</v>
+        <v>0.999177</v>
       </c>
       <c r="I6">
-        <v>0.8973953530133233</v>
+        <v>0.08073427759634712</v>
       </c>
       <c r="J6">
-        <v>0.8536035096273711</v>
+        <v>0.07892927665008602</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>3.87073</v>
+        <v>0.004340666666666667</v>
       </c>
       <c r="N6">
-        <v>7.74146</v>
+        <v>0.013022</v>
       </c>
       <c r="O6">
-        <v>0.4357780537476825</v>
+        <v>0.0009523746835961471</v>
       </c>
       <c r="P6">
-        <v>0.3549718160138305</v>
+        <v>0.001040080561116354</v>
       </c>
       <c r="Q6">
-        <v>9.581498596924998</v>
+        <v>0.002168547149</v>
       </c>
       <c r="R6">
-        <v>38.32599438769999</v>
+        <v>0.013011282894</v>
       </c>
       <c r="S6">
-        <v>0.3910652003783605</v>
+        <v>7.68892820811846E-05</v>
       </c>
       <c r="T6">
-        <v>0.3030051879682071</v>
+        <v>8.209280634672943E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>2.4753725</v>
+        <v>0.2830243333333333</v>
       </c>
       <c r="H7">
-        <v>4.950745</v>
+        <v>0.849073</v>
       </c>
       <c r="I7">
-        <v>0.8973953530133233</v>
+        <v>0.0457371718801662</v>
       </c>
       <c r="J7">
-        <v>0.8536035096273711</v>
+        <v>0.06707191790155147</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.384385</v>
+        <v>0.8639135</v>
       </c>
       <c r="N7">
-        <v>10.153155</v>
+        <v>1.727827</v>
       </c>
       <c r="O7">
-        <v>0.38102391756409</v>
+        <v>0.1895490737713731</v>
       </c>
       <c r="P7">
-        <v>0.4655560926000913</v>
+        <v>0.1380033232738433</v>
       </c>
       <c r="Q7">
-        <v>8.377613558412499</v>
+        <v>0.2445085423951666</v>
       </c>
       <c r="R7">
-        <v>50.26568135047498</v>
+        <v>1.467051254371</v>
       </c>
       <c r="S7">
-        <v>0.341929093008946</v>
+        <v>0.008669438566807592</v>
       </c>
       <c r="T7">
-        <v>0.3974003145718433</v>
+        <v>0.009256147568764484</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>2.4753725</v>
+        <v>0.2830243333333333</v>
       </c>
       <c r="H8">
-        <v>4.950745</v>
+        <v>0.849073</v>
       </c>
       <c r="I8">
-        <v>0.8973953530133233</v>
+        <v>0.0457371718801662</v>
       </c>
       <c r="J8">
-        <v>0.8536035096273711</v>
+        <v>0.06707191790155147</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.967637</v>
+        <v>3.384385</v>
       </c>
       <c r="N8">
-        <v>1.935274</v>
+        <v>10.153155</v>
       </c>
       <c r="O8">
-        <v>0.1089393909144389</v>
+        <v>0.7425593442349591</v>
       </c>
       <c r="P8">
-        <v>0.08873878134929972</v>
+        <v>0.8109429541930055</v>
       </c>
       <c r="Q8">
-        <v>2.3952620197825</v>
+        <v>0.9578633083683331</v>
       </c>
       <c r="R8">
-        <v>9.581048079129999</v>
+        <v>8.620769775314997</v>
       </c>
       <c r="S8">
-        <v>0.09776170316671935</v>
+        <v>0.03396256435849782</v>
       </c>
       <c r="T8">
-        <v>0.07574773519981814</v>
+        <v>0.05439149924647488</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,495 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.2830243333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.849073</v>
+      </c>
+      <c r="I9">
+        <v>0.0457371718801662</v>
+      </c>
+      <c r="J9">
+        <v>0.06707191790155147</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.2890925</v>
+      </c>
+      <c r="N9">
+        <v>0.5781849999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.06342905349812297</v>
+      </c>
+      <c r="P9">
+        <v>0.04618023185601746</v>
+      </c>
+      <c r="Q9">
+        <v>0.08182021208416666</v>
+      </c>
+      <c r="R9">
+        <v>0.490921272505</v>
+      </c>
+      <c r="S9">
+        <v>0.002901065522039907</v>
+      </c>
+      <c r="T9">
+        <v>0.003097396719721415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>2.4753725</v>
-      </c>
-      <c r="H9">
-        <v>4.950745</v>
-      </c>
-      <c r="I9">
-        <v>0.8973953530133233</v>
-      </c>
-      <c r="J9">
-        <v>0.8536035096273711</v>
-      </c>
-      <c r="K9">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.2830243333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.849073</v>
+      </c>
+      <c r="I10">
+        <v>0.0457371718801662</v>
+      </c>
+      <c r="J10">
+        <v>0.06707191790155147</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.01599833333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.047995</v>
+      </c>
+      <c r="O10">
+        <v>0.003510153811948785</v>
+      </c>
+      <c r="P10">
+        <v>0.003833410116017465</v>
+      </c>
+      <c r="Q10">
+        <v>0.004527917626111111</v>
+      </c>
+      <c r="R10">
+        <v>0.040751258635</v>
+      </c>
+      <c r="S10">
+        <v>0.0001605445082229221</v>
+      </c>
+      <c r="T10">
+        <v>0.0002571141685845003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.2830243333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.849073</v>
+      </c>
+      <c r="I11">
+        <v>0.0457371718801662</v>
+      </c>
+      <c r="J11">
+        <v>0.06707191790155147</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.004340666666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.013022</v>
+      </c>
+      <c r="O11">
+        <v>0.0009523746835961471</v>
+      </c>
+      <c r="P11">
+        <v>0.001040080561116354</v>
+      </c>
+      <c r="Q11">
+        <v>0.001228514289555556</v>
+      </c>
+      <c r="R11">
+        <v>0.011056628606</v>
+      </c>
+      <c r="S11">
+        <v>4.355892459795588E-05</v>
+      </c>
+      <c r="T11">
+        <v>6.976019800619571E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5.4054465</v>
+      </c>
+      <c r="H12">
+        <v>10.810893</v>
+      </c>
+      <c r="I12">
+        <v>0.8735285505234867</v>
+      </c>
+      <c r="J12">
+        <v>0.8539988054483625</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.8639135</v>
+      </c>
+      <c r="N12">
+        <v>1.727827</v>
+      </c>
+      <c r="O12">
+        <v>0.1895490737713731</v>
+      </c>
+      <c r="P12">
+        <v>0.1380033232738433</v>
+      </c>
+      <c r="Q12">
+        <v>4.66983820487775</v>
+      </c>
+      <c r="R12">
+        <v>18.679352819511</v>
+      </c>
+      <c r="S12">
+        <v>0.165576527664577</v>
+      </c>
+      <c r="T12">
+        <v>0.1178546732237664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.4054465</v>
+      </c>
+      <c r="H13">
+        <v>10.810893</v>
+      </c>
+      <c r="I13">
+        <v>0.8735285505234867</v>
+      </c>
+      <c r="J13">
+        <v>0.8539988054483625</v>
+      </c>
+      <c r="K13">
         <v>3</v>
       </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.6595906666666668</v>
-      </c>
-      <c r="N9">
-        <v>1.978772</v>
-      </c>
-      <c r="O9">
-        <v>0.07425863777378852</v>
-      </c>
-      <c r="P9">
-        <v>0.09073331003677852</v>
-      </c>
-      <c r="Q9">
-        <v>1.632732597523333</v>
-      </c>
-      <c r="R9">
-        <v>9.796395585140001</v>
-      </c>
-      <c r="S9">
-        <v>0.06663935645929746</v>
-      </c>
-      <c r="T9">
-        <v>0.07745027188750252</v>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.384385</v>
+      </c>
+      <c r="N13">
+        <v>10.153155</v>
+      </c>
+      <c r="O13">
+        <v>0.7425593442349591</v>
+      </c>
+      <c r="P13">
+        <v>0.8109429541930055</v>
+      </c>
+      <c r="Q13">
+        <v>18.2941120529025</v>
+      </c>
+      <c r="R13">
+        <v>109.764672317415</v>
+      </c>
+      <c r="S13">
+        <v>0.6486467876472346</v>
+      </c>
+      <c r="T13">
+        <v>0.6925443141675929</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5.4054465</v>
+      </c>
+      <c r="H14">
+        <v>10.810893</v>
+      </c>
+      <c r="I14">
+        <v>0.8735285505234867</v>
+      </c>
+      <c r="J14">
+        <v>0.8539988054483625</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.2890925</v>
+      </c>
+      <c r="N14">
+        <v>0.5781849999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.06342905349812297</v>
+      </c>
+      <c r="P14">
+        <v>0.04618023185601746</v>
+      </c>
+      <c r="Q14">
+        <v>1.56267404230125</v>
+      </c>
+      <c r="R14">
+        <v>6.250696169205</v>
+      </c>
+      <c r="S14">
+        <v>0.05540708916329205</v>
+      </c>
+      <c r="T14">
+        <v>0.03943786284036733</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5.4054465</v>
+      </c>
+      <c r="H15">
+        <v>10.810893</v>
+      </c>
+      <c r="I15">
+        <v>0.8735285505234867</v>
+      </c>
+      <c r="J15">
+        <v>0.8539988054483625</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.01599833333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.047995</v>
+      </c>
+      <c r="O15">
+        <v>0.003510153811948785</v>
+      </c>
+      <c r="P15">
+        <v>0.003833410116017465</v>
+      </c>
+      <c r="Q15">
+        <v>0.08647813492250001</v>
+      </c>
+      <c r="R15">
+        <v>0.518868809535</v>
+      </c>
+      <c r="S15">
+        <v>0.003066219571466113</v>
+      </c>
+      <c r="T15">
+        <v>0.003273727659872584</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5.4054465</v>
+      </c>
+      <c r="H16">
+        <v>10.810893</v>
+      </c>
+      <c r="I16">
+        <v>0.8735285505234867</v>
+      </c>
+      <c r="J16">
+        <v>0.8539988054483625</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.004340666666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.013022</v>
+      </c>
+      <c r="O16">
+        <v>0.0009523746835961471</v>
+      </c>
+      <c r="P16">
+        <v>0.001040080561116354</v>
+      </c>
+      <c r="Q16">
+        <v>0.023463241441</v>
+      </c>
+      <c r="R16">
+        <v>0.140779448646</v>
+      </c>
+      <c r="S16">
+        <v>0.0008319264769170066</v>
+      </c>
+      <c r="T16">
+        <v>0.0008882275567634292</v>
       </c>
     </row>
   </sheetData>
